--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrmd_atom_map.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrmd_atom_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
   <si>
     <t>log_name</t>
   </si>
@@ -28,12 +28,18 @@
     <t>N1</t>
   </si>
   <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>N2</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -74,12 +80,6 @@
   </si>
   <si>
     <t>pyrmd7_conf-1</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C5</t>
   </si>
   <si>
     <t>C10</t>
@@ -482,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,16 +510,22 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -528,7 +534,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -536,16 +542,22 @@
       <c r="H2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -554,7 +566,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -562,16 +574,22 @@
       <c r="H3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -580,7 +598,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -588,16 +606,22 @@
       <c r="H4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -606,7 +630,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -614,19 +638,25 @@
       <c r="H5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -640,19 +670,25 @@
       <c r="H6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -666,16 +702,22 @@
       <c r="H7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -684,7 +726,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -692,16 +734,22 @@
       <c r="H8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -710,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -718,13 +766,19 @@
       <c r="H9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -742,21 +796,27 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -770,13 +830,19 @@
       <c r="H11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -794,18 +860,24 @@
         <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -814,7 +886,7 @@
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
@@ -822,16 +894,22 @@
       <c r="H13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
@@ -840,13 +918,19 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
       </c>
       <c r="H14" t="s">
         <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrmd_atom_map.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrmd_atom_map.xlsx
@@ -22,21 +22,21 @@
     <t>C3</t>
   </si>
   <si>
+    <t>N1</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
+    <t>C6</t>
+  </si>
+  <si>
     <t>N2</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -82,19 +82,40 @@
     <t>pyrmd7_conf-1</t>
   </si>
   <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
     <t>C10</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>N15</t>
-  </si>
-  <si>
-    <t>N9</t>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>N13</t>
   </si>
   <si>
     <t>N7</t>
@@ -103,28 +124,7 @@
     <t>N8</t>
   </si>
   <si>
-    <t>N5</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>N13</t>
-  </si>
-  <si>
-    <t>N6</t>
-  </si>
-  <si>
     <t>N10</t>
-  </si>
-  <si>
-    <t>C12</t>
   </si>
 </sst>
 </file>
@@ -525,28 +525,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -557,28 +557,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -589,28 +589,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -621,28 +621,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -653,28 +653,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -685,28 +685,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -717,25 +717,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
         <v>4</v>
@@ -749,25 +749,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
         <v>4</v>
@@ -781,28 +781,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -813,28 +813,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -845,28 +845,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -877,22 +877,22 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
         <v>7</v>
@@ -909,25 +909,25 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
         <v>4</v>
